--- a/ラーメンデータバンクサンプルデータ.xlsx
+++ b/ラーメンデータバンクサンプルデータ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26518"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="48340" yWindow="1840" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,8 +223,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -251,7 +253,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -263,6 +265,7 @@
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -275,6 +278,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -605,7 +609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -628,16 +634,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
         <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -645,16 +651,16 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>596</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>426</v>
+      </c>
+      <c r="E6">
         <v>98.656999999999996</v>
-      </c>
-      <c r="C6">
-        <v>596</v>
-      </c>
-      <c r="D6">
-        <v>41</v>
-      </c>
-      <c r="E6">
-        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -662,16 +668,16 @@
         <v>7</v>
       </c>
       <c r="B7">
+        <v>522</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>286</v>
+      </c>
+      <c r="E7">
         <v>98.453999999999994</v>
-      </c>
-      <c r="C7">
-        <v>522</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -679,16 +685,16 @@
         <v>8</v>
       </c>
       <c r="B8">
+        <v>1135</v>
+      </c>
+      <c r="C8">
+        <v>37</v>
+      </c>
+      <c r="D8">
+        <v>510</v>
+      </c>
+      <c r="E8">
         <v>97.738</v>
-      </c>
-      <c r="C8">
-        <v>1135</v>
-      </c>
-      <c r="D8">
-        <v>37</v>
-      </c>
-      <c r="E8">
-        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -696,16 +702,16 @@
         <v>9</v>
       </c>
       <c r="B9">
+        <v>598</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>551</v>
+      </c>
+      <c r="E9">
         <v>97.65</v>
-      </c>
-      <c r="C9">
-        <v>598</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -713,16 +719,16 @@
         <v>10</v>
       </c>
       <c r="B10">
+        <v>389</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>317</v>
+      </c>
+      <c r="E10">
         <v>97.460999999999999</v>
-      </c>
-      <c r="C10">
-        <v>389</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -730,16 +736,16 @@
         <v>11</v>
       </c>
       <c r="B11">
+        <v>605</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>301</v>
+      </c>
+      <c r="E11">
         <v>97.206999999999994</v>
-      </c>
-      <c r="C11">
-        <v>605</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -747,16 +753,16 @@
         <v>12</v>
       </c>
       <c r="B12">
+        <v>484</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>237</v>
+      </c>
+      <c r="E12">
         <v>97.179000000000002</v>
-      </c>
-      <c r="C12">
-        <v>484</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -764,16 +770,16 @@
         <v>13</v>
       </c>
       <c r="B13">
+        <v>214</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>199</v>
+      </c>
+      <c r="E13">
         <v>96.900999999999996</v>
-      </c>
-      <c r="C13">
-        <v>214</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -781,16 +787,16 @@
         <v>14</v>
       </c>
       <c r="B14">
+        <v>417</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>227</v>
+      </c>
+      <c r="E14">
         <v>96.537999999999997</v>
-      </c>
-      <c r="C14">
-        <v>417</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -798,16 +804,16 @@
         <v>15</v>
       </c>
       <c r="B15">
+        <v>445</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>247</v>
+      </c>
+      <c r="E15">
         <v>95.968999999999994</v>
-      </c>
-      <c r="C15">
-        <v>445</v>
-      </c>
-      <c r="D15">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -815,16 +821,16 @@
         <v>16</v>
       </c>
       <c r="B16">
+        <v>351</v>
+      </c>
+      <c r="C16">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>168</v>
+      </c>
+      <c r="E16">
         <v>94.227999999999994</v>
-      </c>
-      <c r="C16">
-        <v>351</v>
-      </c>
-      <c r="D16">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -832,16 +838,16 @@
         <v>17</v>
       </c>
       <c r="B17">
+        <v>134</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>119</v>
+      </c>
+      <c r="E17">
         <v>93.938999999999993</v>
-      </c>
-      <c r="C17">
-        <v>134</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -849,16 +855,16 @@
         <v>18</v>
       </c>
       <c r="B18">
+        <v>525</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>203</v>
+      </c>
+      <c r="E18">
         <v>93.224999999999994</v>
-      </c>
-      <c r="C18">
-        <v>525</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -866,16 +872,16 @@
         <v>19</v>
       </c>
       <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
         <v>92.935000000000002</v>
-      </c>
-      <c r="C19">
-        <v>32</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -883,16 +889,16 @@
         <v>20</v>
       </c>
       <c r="B20">
+        <v>251</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>127</v>
+      </c>
+      <c r="E20">
         <v>92.222999999999999</v>
-      </c>
-      <c r="C20">
-        <v>251</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -900,16 +906,16 @@
         <v>21</v>
       </c>
       <c r="B21">
+        <v>136</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>102</v>
+      </c>
+      <c r="E21">
         <v>92.153999999999996</v>
-      </c>
-      <c r="C21">
-        <v>136</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -917,16 +923,16 @@
         <v>22</v>
       </c>
       <c r="B22">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>53</v>
+      </c>
+      <c r="E22">
         <v>91.902000000000001</v>
-      </c>
-      <c r="C22">
-        <v>63</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -934,16 +940,16 @@
         <v>23</v>
       </c>
       <c r="B23">
+        <v>134</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>122</v>
+      </c>
+      <c r="E23">
         <v>91.727999999999994</v>
-      </c>
-      <c r="C23">
-        <v>134</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -951,16 +957,16 @@
         <v>24</v>
       </c>
       <c r="B24">
+        <v>193</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>130</v>
+      </c>
+      <c r="E24">
         <v>91.42</v>
-      </c>
-      <c r="C24">
-        <v>193</v>
-      </c>
-      <c r="D24">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -968,16 +974,16 @@
         <v>25</v>
       </c>
       <c r="B25">
+        <v>150</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>105</v>
+      </c>
+      <c r="E25">
         <v>91.340999999999994</v>
-      </c>
-      <c r="C25">
-        <v>150</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
